--- a/server/départements.xlsx
+++ b/server/départements.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID Département</t>
   </si>
@@ -19,12 +19,6 @@
     <t>Libellé</t>
   </si>
   <si>
-    <t>6615e06661b4c2a86dacf29c</t>
-  </si>
-  <si>
-    <t>Physique</t>
-  </si>
-  <si>
     <t>6615e86861b4c2a86dacf2ba</t>
   </si>
   <si>
@@ -35,6 +29,18 @@
   </si>
   <si>
     <t>Informatique</t>
+  </si>
+  <si>
+    <t>662220c96f4586280ee81ff0</t>
+  </si>
+  <si>
+    <t>Langues et Cultures</t>
+  </si>
+  <si>
+    <t>662424b6b32e3f5357787ca0</t>
+  </si>
+  <si>
+    <t>Science appliqué</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -449,6 +455,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
